--- a/PRODUTOS/Mercearia Doce/Mercearia Doce - Leite condensado e creme de leite.xlsx
+++ b/PRODUTOS/Mercearia Doce/Mercearia Doce - Leite condensado e creme de leite.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Creme De Leite Italac Leve Tetra Pack 200g</t>
+          <t>Leite Condensado Italac 395g Zero Lactose</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 11,49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec4a8468-f74a-48d2-9157-99018f94d66f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fcb82b12-52e9-4791-9726-168c029eec77.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7898080641564</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Creme De Leite Quata Tp 200g</t>
+          <t>Leite Condensado Semi Desnatado Moça Tp 340g</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8cda8b6-2124-4fc5-b0a6-66883b7d88c0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4403f162-3dae-48ce-a2fa-2fc1fda8d1f5.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891000107041</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Leite Condensado Italac Semidesnatado 395g</t>
+          <t>Mistura Láctea Condensada Mococa Tp 395g</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e7b9495a-7409-4f72-9b7d-d64429053e50.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fe9a589e-9b50-4766-8b3d-c7380f7dd489.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7891030300207</t>
         </is>
       </c>
     </row>
@@ -542,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Leite Condensado Nestlé Moça Lata 395g</t>
+          <t>Leite Cond Desnatado Italac Light 395g</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -552,7 +572,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d3fe3138-9d30-40d9-a836-e2e1fb94a295.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f79399ff-dd04-4469-8285-ef73b2d821ff.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7898080642646</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Creme De Leite Piracanjuba Tp 200g</t>
+          <t>Leite Condensado Integral Italac 395g</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c8ddca5f-918b-40af-b89d-fbdb33ebdcd3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d1ab68c2-e440-437f-8b96-a5853ad8bdbc.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7898080642646</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Creme De Leite Tp 200g Mococa</t>
+          <t>Leite Cond Moca Tp 395g Zero Lactose</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 3,59</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6b57340e-ccc7-4271-84dd-86333ec13fef.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b36869f5-f845-49b8-8432-b17a3963b9ca.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7891000317396</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Creme De Leite Nestlé Lata 300g</t>
+          <t>Leite Cond Piracanjuba Zero Lactose 395g</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d9b8e495-a28e-4701-a737-fe1b934d5704.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5bffaef-f293-40ff-b4f2-823678730fb0.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7898215151999</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Leite Condensado Semidesnatado Piracanjuba Caixa 270g</t>
+          <t>Creme De Leite Pirac Zero Lactos Tp 200g</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b03fa9fc-b32a-47ef-8068-6936f37af0b2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c84d17fa-7153-46c4-b25d-226eeb70e386.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7898215151982</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Leite Condensado Semi Desnatado Moça Tp 340g</t>
+          <t>Creme De Leite Italac Leve Tetra Pack 200g</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4403f162-3dae-48ce-a2fa-2fc1fda8d1f5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec4a8468-f74a-48d2-9157-99018f94d66f.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7898080640222</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Leite Condensado Semi Desnatado Moça Tp 395g</t>
+          <t>Creme De Leite Zero Lactose Italac 200g</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/07cb2f03-9f9e-4e23-9bb7-493868e1c399.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9f6fdbd4-e53a-42d1-8acf-f72e16e2771d.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7898080640222</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Creme De Leite Pirac Zero Lactos Tp 200g</t>
+          <t>Creme De Leite Quata Tp 200g</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c84d17fa-7153-46c4-b25d-226eeb70e386.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8cda8b6-2124-4fc5-b0a6-66883b7d88c0.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7898080640222</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Leite Condensado Integral Italac 395g</t>
+          <t>Leite Condensado Piracanjuba Tetra Pak 395g</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d1ab68c2-e440-437f-8b96-a5853ad8bdbc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6aa0d53-c1a5-47b0-8c77-2a9bd62ebccb.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7898215152019</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Creme De Leite Zero Lactose Italac 200g</t>
+          <t>Leite Condensado Italac Semidesnatado 395g</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9f6fdbd4-e53a-42d1-8acf-f72e16e2771d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e7b9495a-7409-4f72-9b7d-d64429053e50.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896051115038</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Leite Condensado Itambe 395g Lata</t>
+          <t>Leite Condensado Nestlé Moça Lata 395g</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fc89e910-3635-428c-9ff1-83d4e55f7f6b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d3fe3138-9d30-40d9-a836-e2e1fb94a295.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896051115038</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Leite Cond Piracanjuba Zero Lactose 395g</t>
+          <t>Creme De Leite Nestlé Lata 300g</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5bffaef-f293-40ff-b4f2-823678730fb0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d9b8e495-a28e-4701-a737-fe1b934d5704.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7891000126905</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Leite Condensado Italac 395g Zero Lactose</t>
+          <t>Leite Condensado Light Moça Tp 410g</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 11,49</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fcb82b12-52e9-4791-9726-168c029eec77.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6c48024b-a069-4378-8707-7de03b9233d6.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7891000107041</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mistura Láctea Condensada Mococa Tp 395g</t>
+          <t>Leite Condensado Semidesnatado Piracanjuba Caixa 270g</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fe9a589e-9b50-4766-8b3d-c7380f7dd489.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b03fa9fc-b32a-47ef-8068-6936f37af0b2.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7898215152019</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Leite Condensado Light Moça Tp 410g</t>
+          <t>Creme De Leite Piracanjuba Tp 200g</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6c48024b-a069-4378-8707-7de03b9233d6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c8ddca5f-918b-40af-b89d-fbdb33ebdcd3.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7898215151784</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Leite Cond Desnatado Italac Light 395g</t>
+          <t>Leite Condensado Itambe 395g Lata</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f79399ff-dd04-4469-8285-ef73b2d821ff.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fc89e910-3635-428c-9ff1-83d4e55f7f6b.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7896051115038</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,54 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Leite Cond Moca Tp 395g Zero Lactose</t>
+          <t>Leite Condensado Semi Desnatado Moça Tp 395g</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b36869f5-f845-49b8-8432-b17a3963b9ca.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/07cb2f03-9f9e-4e23-9bb7-493868e1c399.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7891000107041</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Mercearia Doce</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Leite condensado e creme de leite</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Creme De Leite Tp 200g Mococa</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>R$ 3,59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6b57340e-ccc7-4271-84dd-86333ec13fef.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7891030003467</t>
         </is>
       </c>
     </row>
